--- a/biology/Histoire de la zoologie et de la botanique/Les_Amis_de_l'Éléphant/Les_Amis_de_l'Éléphant.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Les_Amis_de_l'Éléphant/Les_Amis_de_l'Éléphant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Amis_de_l%27%C3%89l%C3%A9phant</t>
+          <t>Les_Amis_de_l'Éléphant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Amis de l’Éléphant est une société savante consacrée à la zoologie fondée en 1905[1]. Elle est à ce jour dissoute[Quand ?].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Amis de l’Éléphant est une société savante consacrée à la zoologie fondée en 1905. Elle est à ce jour dissoute[Quand ?].
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Amis_de_l%27%C3%89l%C3%A9phant</t>
+          <t>Les_Amis_de_l'Éléphant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fondée à l'initiative de Gaston Tournier[2], le but premier de cette association était d'« endiguer la terrible hécatombe annuelle d’éléphants, réglementer le trafic de l’ivoire et répandre dans nos possessions africaines la domestication de ces proboscidiens parfaitement aptes à rendre d’immenses services dans la colonisation et le portage. »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondée à l'initiative de Gaston Tournier, le but premier de cette association était d'« endiguer la terrible hécatombe annuelle d’éléphants, réglementer le trafic de l’ivoire et répandre dans nos possessions africaines la domestication de ces proboscidiens parfaitement aptes à rendre d’immenses services dans la colonisation et le portage. »
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Amis_de_l%27%C3%89l%C3%A9phant</t>
+          <t>Les_Amis_de_l'Éléphant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Amis_de_l%27%C3%89l%C3%A9phant</t>
+          <t>Les_Amis_de_l'Éléphant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,7 +584,9 @@
           <t>Membres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jean Ajalbert
 Édouard Allévy
